--- a/order_template.xlsx
+++ b/order_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Downloads/Unzipped/POD Order Processing Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Desktop/Work Projects/POD-Order-Processing-Tool-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8A251-738C-6042-8DD0-990D7302E424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E45C44-FD47-234B-BF31-9B6BF413CAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EPace Data" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{36662D96-D493-A143-88B9-B94C6EB8777C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Replace Sample Data</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>9781399183666</t>
   </si>
@@ -29,78 +63,6 @@
   </si>
   <si>
     <t>9781399184281</t>
-  </si>
-  <si>
-    <t>9781444853674</t>
-  </si>
-  <si>
-    <t>9781444854800</t>
-  </si>
-  <si>
-    <t>9781444854893</t>
-  </si>
-  <si>
-    <t>9781444854862</t>
-  </si>
-  <si>
-    <t>9781444854916</t>
-  </si>
-  <si>
-    <t>9781444854794</t>
-  </si>
-  <si>
-    <t>9781444854787</t>
-  </si>
-  <si>
-    <t>9781444854848</t>
-  </si>
-  <si>
-    <t>9781444854114</t>
-  </si>
-  <si>
-    <t>9781399170215</t>
-  </si>
-  <si>
-    <t>9781399170222</t>
-  </si>
-  <si>
-    <t>9781399169394</t>
-  </si>
-  <si>
-    <t>9781399170154</t>
-  </si>
-  <si>
-    <t>9781399170109</t>
-  </si>
-  <si>
-    <t>9780750551892</t>
-  </si>
-  <si>
-    <t>9780750551878</t>
-  </si>
-  <si>
-    <t>9780750551946</t>
-  </si>
-  <si>
-    <t>9780750551922</t>
-  </si>
-  <si>
-    <t>9781399170208</t>
-  </si>
-  <si>
-    <t>9781399170192</t>
-  </si>
-  <si>
-    <t>9781444854770</t>
-  </si>
-  <si>
-    <t>9780750551663</t>
-  </si>
-  <si>
-    <t>9780750551885</t>
-  </si>
-  <si>
-    <t>9780750551823</t>
   </si>
   <si>
     <t>ISBN</t>
@@ -113,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -125,6 +87,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -192,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,18 +455,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,10 +476,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -531,199 +506,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>